--- a/r4-core-change-template-package-version/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-change-template-package-version/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T09:55:57+00:00</t>
+    <t>2023-01-18T10:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
